--- a/public/LegacyCube.2015-09-14.xlsx
+++ b/public/LegacyCube.2015-09-14.xlsx
@@ -11562,9 +11562,6 @@
     <t>Enchant land\nEnchanted land has "T, Drink 1 and pay 1 life: Draw a card."</t>
   </si>
   <si>
-    <t>Target player sacrifices a creature.Flashback 5BB and drink 1</t>
-  </si>
-  <si>
     <t>Choose two:\n   Target player loses X life.\n   Return target creature card with converted mana cost X or less from your graveyard to the battlefield.\n   Target creature gets -X/-X until end of turn.\n   Up to X target creatures gain fear until end of turn.\n   Target player drinks X/2 rounded up</t>
   </si>
   <si>
@@ -11926,6 +11923,9 @@
   </si>
   <si>
     <t>expansion</t>
+  </si>
+  <si>
+    <t>Target player sacrifices a creature.\nFlashback 5BB and drink 1</t>
   </si>
 </sst>
 </file>
@@ -13315,14 +13315,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S592"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="S1" sqref="A1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
     <col min="5" max="18" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13361,7 +13361,7 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>3968</v>
+        <v>3967</v>
       </c>
       <c r="M1" t="s">
         <v>11</v>
@@ -14839,7 +14839,7 @@
         <v>270</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>3965</v>
+        <v>3964</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -14977,7 +14977,7 @@
         <v>291</v>
       </c>
       <c r="S36" t="s">
-        <v>3943</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -15592,7 +15592,7 @@
         <v>388</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>3883</v>
+        <v>3882</v>
       </c>
     </row>
     <row r="51" spans="1:19">
@@ -15761,7 +15761,7 @@
         <v>415</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>3883</v>
+        <v>3882</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -17371,7 +17371,7 @@
         <v>657</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>3966</v>
+        <v>3965</v>
       </c>
     </row>
     <row r="93" spans="1:19">
@@ -18952,7 +18952,7 @@
         <v>906</v>
       </c>
       <c r="S128" s="2" t="s">
-        <v>3967</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="129" spans="1:19">
@@ -20917,7 +20917,7 @@
         <v>1198</v>
       </c>
       <c r="S174" s="2" t="s">
-        <v>3961</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="175" spans="1:19">
@@ -22925,7 +22925,7 @@
         <v>1485</v>
       </c>
       <c r="S220" s="2" t="s">
-        <v>3847</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="221" spans="1:19">
@@ -23092,7 +23092,7 @@
         <v>1508</v>
       </c>
       <c r="S224" s="2" t="s">
-        <v>3851</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="225" spans="1:19">
@@ -23220,7 +23220,7 @@
         <v>1526</v>
       </c>
       <c r="S227" s="2" t="s">
-        <v>3850</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="228" spans="1:19">
@@ -23342,7 +23342,7 @@
         <v>1544</v>
       </c>
       <c r="S230" s="2" t="s">
-        <v>3848</v>
+        <v>3847</v>
       </c>
     </row>
     <row r="231" spans="1:19">
@@ -23386,7 +23386,7 @@
         <v>1551</v>
       </c>
       <c r="S231" s="2" t="s">
-        <v>3849</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="232" spans="1:19">
@@ -23430,7 +23430,7 @@
         <v>1558</v>
       </c>
       <c r="S232" s="2" t="s">
-        <v>3962</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="233" spans="1:19">
@@ -23474,7 +23474,7 @@
         <v>1565</v>
       </c>
       <c r="S233" s="2" t="s">
-        <v>3852</v>
+        <v>3851</v>
       </c>
     </row>
     <row r="234" spans="1:19">
@@ -23518,7 +23518,7 @@
         <v>1571</v>
       </c>
       <c r="S234" s="2" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
     </row>
     <row r="235" spans="1:19">
@@ -23727,7 +23727,7 @@
         <v>1603</v>
       </c>
       <c r="S239" s="2" t="s">
-        <v>3854</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="240" spans="1:19">
@@ -24113,7 +24113,7 @@
         <v>1662</v>
       </c>
       <c r="S248" s="2" t="s">
-        <v>3855</v>
+        <v>3854</v>
       </c>
     </row>
     <row r="249" spans="1:19">
@@ -24367,7 +24367,7 @@
         <v>1699</v>
       </c>
       <c r="S254" s="2" t="s">
-        <v>3856</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="255" spans="1:19">
@@ -24411,7 +24411,7 @@
         <v>1708</v>
       </c>
       <c r="S255" s="2" t="s">
-        <v>3857</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="256" spans="1:19">
@@ -24458,7 +24458,7 @@
         <v>1715</v>
       </c>
       <c r="S256" s="2" t="s">
-        <v>3858</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="257" spans="1:19">
@@ -24502,7 +24502,7 @@
         <v>1721</v>
       </c>
       <c r="S257" s="2" t="s">
-        <v>3859</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="258" spans="1:19">
@@ -24546,7 +24546,7 @@
         <v>1726</v>
       </c>
       <c r="S258" s="2" t="s">
-        <v>3860</v>
+        <v>3859</v>
       </c>
     </row>
     <row r="259" spans="1:19">
@@ -24593,7 +24593,7 @@
         <v>1734</v>
       </c>
       <c r="S259" s="2" t="s">
-        <v>3880</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="260" spans="1:19">
@@ -24733,7 +24733,7 @@
         <v>1753</v>
       </c>
       <c r="S262" s="2" t="s">
-        <v>3861</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="263" spans="1:19">
@@ -24825,7 +24825,7 @@
         <v>1766</v>
       </c>
       <c r="S264" s="2" t="s">
-        <v>3862</v>
+        <v>3861</v>
       </c>
     </row>
     <row r="265" spans="1:19">
@@ -24869,7 +24869,7 @@
         <v>1771</v>
       </c>
       <c r="S265" t="s">
-        <v>3863</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="266" spans="1:19">
@@ -24913,7 +24913,7 @@
         <v>1776</v>
       </c>
       <c r="S266" t="s">
-        <v>3864</v>
+        <v>3863</v>
       </c>
     </row>
     <row r="267" spans="1:19">
@@ -24960,7 +24960,7 @@
         <v>1783</v>
       </c>
       <c r="S267" s="2" t="s">
-        <v>3865</v>
+        <v>3864</v>
       </c>
     </row>
     <row r="268" spans="1:19">
@@ -25004,7 +25004,7 @@
         <v>1788</v>
       </c>
       <c r="S268" s="2" t="s">
-        <v>3866</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="269" spans="1:19">
@@ -25096,7 +25096,7 @@
         <v>1802</v>
       </c>
       <c r="S270" s="2" t="s">
-        <v>3867</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="271" spans="1:19">
@@ -25143,7 +25143,7 @@
         <v>1808</v>
       </c>
       <c r="S271" s="2" t="s">
-        <v>3868</v>
+        <v>3867</v>
       </c>
     </row>
     <row r="272" spans="1:19">
@@ -25190,7 +25190,7 @@
         <v>1815</v>
       </c>
       <c r="S272" s="2" t="s">
-        <v>3869</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="273" spans="1:19">
@@ -25276,7 +25276,7 @@
         <v>1827</v>
       </c>
       <c r="S274" t="s">
-        <v>3870</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="275" spans="1:19">
@@ -25368,7 +25368,7 @@
         <v>1842</v>
       </c>
       <c r="S276" s="2" t="s">
-        <v>3871</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="277" spans="1:19">
@@ -25457,7 +25457,7 @@
         <v>1856</v>
       </c>
       <c r="S278" s="2" t="s">
-        <v>3872</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="279" spans="1:19">
@@ -25501,7 +25501,7 @@
         <v>1862</v>
       </c>
       <c r="S279" s="2" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
     </row>
     <row r="280" spans="1:19">
@@ -25593,7 +25593,7 @@
         <v>1876</v>
       </c>
       <c r="S281" s="2" t="s">
-        <v>3879</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="282" spans="1:19">
@@ -25637,7 +25637,7 @@
         <v>1882</v>
       </c>
       <c r="S282" s="2" t="s">
-        <v>3874</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="283" spans="1:19">
@@ -25687,7 +25687,7 @@
         <v>1888</v>
       </c>
       <c r="S283" s="2" t="s">
-        <v>3875</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="284" spans="1:19">
@@ -25734,7 +25734,7 @@
         <v>1895</v>
       </c>
       <c r="S284" s="2" t="s">
-        <v>3876</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="285" spans="1:19">
@@ -25778,7 +25778,7 @@
         <v>1900</v>
       </c>
       <c r="S285" s="2" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="286" spans="1:19">
@@ -25822,7 +25822,7 @@
         <v>1906</v>
       </c>
       <c r="S286" s="2" t="s">
-        <v>3878</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="287" spans="1:19">
@@ -25869,7 +25869,7 @@
         <v>1913</v>
       </c>
       <c r="S287" s="2" t="s">
-        <v>3963</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="288" spans="1:19">
@@ -25913,7 +25913,7 @@
         <v>1918</v>
       </c>
       <c r="S288" s="2" t="s">
-        <v>3964</v>
+        <v>3963</v>
       </c>
     </row>
     <row r="289" spans="1:19">
@@ -25963,7 +25963,7 @@
         <v>1924</v>
       </c>
       <c r="S289" s="2" t="s">
-        <v>3881</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="290" spans="1:19">
@@ -26052,7 +26052,7 @@
         <v>1935</v>
       </c>
       <c r="S291" s="2" t="s">
-        <v>3882</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="292" spans="1:19">
@@ -26177,7 +26177,7 @@
         <v>1951</v>
       </c>
       <c r="S294" s="2" t="s">
-        <v>3884</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="295" spans="1:19">
@@ -26305,7 +26305,7 @@
         <v>1971</v>
       </c>
       <c r="S297" s="2" t="s">
-        <v>3885</v>
+        <v>3884</v>
       </c>
     </row>
     <row r="298" spans="1:19">
@@ -26391,7 +26391,7 @@
         <v>1985</v>
       </c>
       <c r="S299" s="2" t="s">
-        <v>3886</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="300" spans="1:19">
@@ -26513,7 +26513,7 @@
         <v>2002</v>
       </c>
       <c r="S302" s="2" t="s">
-        <v>3887</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="303" spans="1:19">
@@ -26599,7 +26599,7 @@
         <v>2013</v>
       </c>
       <c r="S304" s="2" t="s">
-        <v>3888</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="305" spans="1:19">
@@ -26643,7 +26643,7 @@
         <v>2020</v>
       </c>
       <c r="S305" s="2" t="s">
-        <v>3889</v>
+        <v>3888</v>
       </c>
     </row>
     <row r="306" spans="1:19">
@@ -26687,7 +26687,7 @@
         <v>2026</v>
       </c>
       <c r="S306" s="2" t="s">
-        <v>3890</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="307" spans="1:19">
@@ -26731,7 +26731,7 @@
         <v>2032</v>
       </c>
       <c r="S307" s="2" t="s">
-        <v>3891</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="308" spans="1:19">
@@ -26775,7 +26775,7 @@
         <v>2038</v>
       </c>
       <c r="S308" s="2" t="s">
-        <v>3892</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="309" spans="1:19">
@@ -26819,7 +26819,7 @@
         <v>2044</v>
       </c>
       <c r="S309" s="2" t="s">
-        <v>3893</v>
+        <v>3892</v>
       </c>
     </row>
     <row r="310" spans="1:19">
@@ -26863,7 +26863,7 @@
         <v>2050</v>
       </c>
       <c r="S310" s="2" t="s">
-        <v>3894</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="311" spans="1:19">
@@ -26907,7 +26907,7 @@
         <v>2055</v>
       </c>
       <c r="S311" s="2" t="s">
-        <v>3889</v>
+        <v>3888</v>
       </c>
     </row>
     <row r="312" spans="1:19">
@@ -26990,7 +26990,7 @@
         <v>2066</v>
       </c>
       <c r="S313" s="2" t="s">
-        <v>3895</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="314" spans="1:19">
@@ -27031,7 +27031,7 @@
         <v>2071</v>
       </c>
       <c r="S314" s="2" t="s">
-        <v>3896</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="315" spans="1:19">
@@ -27122,7 +27122,7 @@
         <v>2083</v>
       </c>
       <c r="S316" s="2" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="317" spans="1:19">
@@ -27163,7 +27163,7 @@
         <v>2089</v>
       </c>
       <c r="S317" s="2" t="s">
-        <v>3898</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="318" spans="1:19">
@@ -27204,7 +27204,7 @@
         <v>2094</v>
       </c>
       <c r="S318" s="2" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="319" spans="1:19">
@@ -27248,7 +27248,7 @@
         <v>2100</v>
       </c>
       <c r="S319" s="2" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="320" spans="1:19">
@@ -27292,7 +27292,7 @@
         <v>2106</v>
       </c>
       <c r="S320" s="2" t="s">
-        <v>3901</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="321" spans="1:19">
@@ -27336,7 +27336,7 @@
         <v>2113</v>
       </c>
       <c r="S321" s="2" t="s">
-        <v>3902</v>
+        <v>3901</v>
       </c>
     </row>
     <row r="322" spans="1:19">
@@ -27377,7 +27377,7 @@
         <v>2118</v>
       </c>
       <c r="S322" s="2" t="s">
-        <v>3903</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="323" spans="1:19">
@@ -27421,7 +27421,7 @@
         <v>2124</v>
       </c>
       <c r="S323" s="2" t="s">
-        <v>3904</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="324" spans="1:19">
@@ -27465,7 +27465,7 @@
         <v>2130</v>
       </c>
       <c r="S324" s="2" t="s">
-        <v>3905</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="325" spans="1:19">
@@ -27506,7 +27506,7 @@
         <v>3681</v>
       </c>
       <c r="S325" s="2" t="s">
-        <v>3906</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="326" spans="1:19">
@@ -27550,7 +27550,7 @@
         <v>2137</v>
       </c>
       <c r="S326" s="2" t="s">
-        <v>3907</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="327" spans="1:19">
@@ -27630,7 +27630,7 @@
         <v>2147</v>
       </c>
       <c r="S328" s="2" t="s">
-        <v>3908</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="329" spans="1:19">
@@ -27671,7 +27671,7 @@
         <v>2153</v>
       </c>
       <c r="S329" s="2" t="s">
-        <v>3909</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="330" spans="1:19">
@@ -28099,7 +28099,7 @@
         <v>2217</v>
       </c>
       <c r="S339" s="2" t="s">
-        <v>3910</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="340" spans="1:19">
@@ -28188,7 +28188,7 @@
         <v>2231</v>
       </c>
       <c r="S341" s="2" t="s">
-        <v>3911</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="342" spans="1:19">
@@ -28277,7 +28277,7 @@
         <v>2243</v>
       </c>
       <c r="S343" s="2" t="s">
-        <v>3912</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="344" spans="1:19">
@@ -28366,7 +28366,7 @@
         <v>2254</v>
       </c>
       <c r="S345" s="2" t="s">
-        <v>3913</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="346" spans="1:19">
@@ -28413,7 +28413,7 @@
         <v>2260</v>
       </c>
       <c r="S346" s="2" t="s">
-        <v>3914</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="347" spans="1:19">
@@ -28637,7 +28637,7 @@
         <v>2289</v>
       </c>
       <c r="S351" s="2" t="s">
-        <v>3915</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="352" spans="1:19">
@@ -28813,7 +28813,7 @@
         <v>2313</v>
       </c>
       <c r="S355" s="2" t="s">
-        <v>3916</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="356" spans="1:19">
@@ -28902,7 +28902,7 @@
         <v>2326</v>
       </c>
       <c r="S357" s="2" t="s">
-        <v>3917</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="358" spans="1:19">
@@ -28946,7 +28946,7 @@
         <v>2331</v>
       </c>
       <c r="S358" s="2" t="s">
-        <v>3918</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="359" spans="1:19">
@@ -29209,7 +29209,7 @@
         <v>2368</v>
       </c>
       <c r="S364" s="2" t="s">
-        <v>3919</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="365" spans="1:19">
@@ -29256,7 +29256,7 @@
         <v>2374</v>
       </c>
       <c r="S365" s="2" t="s">
-        <v>3920</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="366" spans="1:19">
@@ -29303,7 +29303,7 @@
         <v>2380</v>
       </c>
       <c r="S366" s="2" t="s">
-        <v>3921</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="367" spans="1:19">
@@ -29530,7 +29530,7 @@
         <v>2412</v>
       </c>
       <c r="S371" s="2" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="372" spans="1:19">
@@ -29664,7 +29664,7 @@
         <v>2434</v>
       </c>
       <c r="S374" s="2" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="375" spans="1:19">
@@ -29711,7 +29711,7 @@
         <v>2440</v>
       </c>
       <c r="S375" s="2" t="s">
-        <v>3924</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="376" spans="1:19">
@@ -30031,7 +30031,7 @@
         <v>2488</v>
       </c>
       <c r="S382" s="2" t="s">
-        <v>3925</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="383" spans="1:19">
@@ -30075,7 +30075,7 @@
         <v>2494</v>
       </c>
       <c r="S383" s="2" t="s">
-        <v>3926</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="384" spans="1:19">
@@ -30164,7 +30164,7 @@
         <v>2507</v>
       </c>
       <c r="S385" s="2" t="s">
-        <v>3927</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="386" spans="1:19">
@@ -30373,7 +30373,7 @@
         <v>2535</v>
       </c>
       <c r="S390" s="2" t="s">
-        <v>3928</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="391" spans="1:19">
@@ -30456,7 +30456,7 @@
         <v>2547</v>
       </c>
       <c r="S392" s="2" t="s">
-        <v>3929</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="393" spans="1:19">
@@ -30665,7 +30665,7 @@
         <v>2576</v>
       </c>
       <c r="S397" s="2" t="s">
-        <v>3930</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="398" spans="1:19">
@@ -30874,7 +30874,7 @@
         <v>2608</v>
       </c>
       <c r="S402" s="2" t="s">
-        <v>3931</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="403" spans="1:19">
@@ -31116,7 +31116,7 @@
         <v>2640</v>
       </c>
       <c r="S408" s="2" t="s">
-        <v>3932</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="409" spans="1:19">
@@ -31583,7 +31583,7 @@
         <v>2706</v>
       </c>
       <c r="S419" s="2" t="s">
-        <v>3933</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="420" spans="1:19">
@@ -31675,7 +31675,7 @@
         <v>2720</v>
       </c>
       <c r="S421" t="s">
-        <v>3934</v>
+        <v>3933</v>
       </c>
     </row>
     <row r="422" spans="1:19">
@@ -31805,7 +31805,7 @@
         <v>2734</v>
       </c>
       <c r="S424" s="2" t="s">
-        <v>3935</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="425" spans="1:19">
@@ -31852,7 +31852,7 @@
         <v>2740</v>
       </c>
       <c r="S425" s="2" t="s">
-        <v>3936</v>
+        <v>3935</v>
       </c>
     </row>
     <row r="426" spans="1:19">
@@ -32075,7 +32075,7 @@
         <v>2765</v>
       </c>
       <c r="S430" s="2" t="s">
-        <v>3937</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="431" spans="1:19">
@@ -32119,7 +32119,7 @@
         <v>2771</v>
       </c>
       <c r="S431" s="2" t="s">
-        <v>3938</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="432" spans="1:19">
@@ -32163,7 +32163,7 @@
         <v>2777</v>
       </c>
       <c r="S432" s="2" t="s">
-        <v>3939</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="433" spans="1:19">
@@ -32213,7 +32213,7 @@
         <v>2785</v>
       </c>
       <c r="S433" t="s">
-        <v>3940</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="434" spans="1:19">
@@ -32257,7 +32257,7 @@
         <v>2790</v>
       </c>
       <c r="S434" s="2" t="s">
-        <v>3941</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="435" spans="1:19">
@@ -32304,7 +32304,7 @@
         <v>2797</v>
       </c>
       <c r="S435" s="2" t="s">
-        <v>3942</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="436" spans="1:19">
@@ -32396,7 +32396,7 @@
         <v>2811</v>
       </c>
       <c r="S437" s="2" t="s">
-        <v>3944</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="438" spans="1:19">
@@ -32617,7 +32617,7 @@
         <v>2842</v>
       </c>
       <c r="S442" s="2" t="s">
-        <v>3945</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="443" spans="1:19">
@@ -32970,7 +32970,7 @@
         <v>2892</v>
       </c>
       <c r="S450" s="2" t="s">
-        <v>3946</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="451" spans="1:19">
@@ -33139,7 +33139,7 @@
         <v>2911</v>
       </c>
       <c r="S454" s="2" t="s">
-        <v>3947</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="455" spans="1:19">
@@ -33315,7 +33315,7 @@
         <v>2938</v>
       </c>
       <c r="S458" s="2" t="s">
-        <v>3948</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="459" spans="1:19">
@@ -33401,7 +33401,7 @@
         <v>2950</v>
       </c>
       <c r="S460" s="2" t="s">
-        <v>3949</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="461" spans="1:19">
@@ -33445,7 +33445,7 @@
         <v>2957</v>
       </c>
       <c r="S461" s="2" t="s">
-        <v>3950</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="462" spans="1:19">
@@ -33489,7 +33489,7 @@
         <v>2963</v>
       </c>
       <c r="S462" s="2" t="s">
-        <v>3951</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="463" spans="1:19">
@@ -33575,7 +33575,7 @@
         <v>2974</v>
       </c>
       <c r="S464" s="2" t="s">
-        <v>3952</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="465" spans="1:19">
@@ -33664,7 +33664,7 @@
         <v>2986</v>
       </c>
       <c r="S466" s="2" t="s">
-        <v>3953</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="467" spans="1:19">
@@ -34254,7 +34254,7 @@
         <v>3070</v>
       </c>
       <c r="S480" s="2" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
     </row>
     <row r="481" spans="1:19">
@@ -34340,7 +34340,7 @@
         <v>3081</v>
       </c>
       <c r="S482" s="2" t="s">
-        <v>3955</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="483" spans="1:19">
@@ -34429,7 +34429,7 @@
         <v>3094</v>
       </c>
       <c r="S484" s="2" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
     </row>
     <row r="485" spans="1:19">
@@ -34766,7 +34766,7 @@
         <v>3138</v>
       </c>
       <c r="S492" s="2" t="s">
-        <v>3957</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="493" spans="1:19">
@@ -35215,7 +35215,7 @@
         <v>3202</v>
       </c>
       <c r="S503" s="2" t="s">
-        <v>3958</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="504" spans="1:19">
@@ -35298,7 +35298,7 @@
         <v>3214</v>
       </c>
       <c r="S505" s="2" t="s">
-        <v>3959</v>
+        <v>3958</v>
       </c>
     </row>
     <row r="506" spans="1:19">
@@ -35342,7 +35342,7 @@
         <v>3220</v>
       </c>
       <c r="S506" s="2" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="507" spans="1:19">

--- a/public/LegacyCube.2015-09-14.xlsx
+++ b/public/LegacyCube.2015-09-14.xlsx
@@ -11346,9 +11346,6 @@
     <t>Put target attacking creature on the bottom of its owner's library. You drink x where x is its toughness.</t>
   </si>
   <si>
-    <t>Flash\nWhen Deceiver Exarch enters the battlefield, choose one: drink 1 and untap target permanent you control OR tap target permanent an opponent controls.</t>
-  </si>
-  <si>
     <t>Whenever Frost Titan becomes the target of a spell or ability an opponent controls, counter that spell or ability unless its controller pays 2 and drinks 1.\nWhenever Frost Titan enters the battlefield or attacks, tap target permanent. It doesn't untap during its controller's next untap step.</t>
   </si>
   <si>
@@ -11358,9 +11355,6 @@
     <t>Drink 1 : Draw a card, then discard a card.</t>
   </si>
   <si>
-    <t>Flash\nFlying\nWhen Pestermite enters the battlefield, drink 1 and you may tap or untap target permanent.</t>
-  </si>
-  <si>
     <t>(The colored mana can be paid with either the appropriate colored mana or 2 drinks.)\nYou may have Phyrexian Metamorph enter the battlefield as a copy of any artifact or creature on the battlefield, except it's an artifact in addition to its other types.</t>
   </si>
   <si>
@@ -11844,12 +11838,6 @@
     <t>Indestructible\nAs long as your devotion to blue and red is less than seven, Keranos isn't a creature.\nReveal the first card you draw on each of your turns. Whenever you reveal a land card this way, draw a card. Whenever you reveal a nonland card this way, Keranos deals 3 damage to target creature or player and 1 drink to target player.</t>
   </si>
   <si>
-    <t>T : Drink 1 and untap another target permanent.</t>
-  </si>
-  <si>
-    <t>Flash\nFlying\nWhen Restoration Angel enters the battlefield, you may exile target non-Angel creature you control, then return that card to the battlefield under your control.  Drink 1 if you used the enter the battlefield effect.</t>
-  </si>
-  <si>
     <t>Trample\nDrunktouch\nDiscard a creature card: Put a +1/+1 counter on Lotleth Troll.\nB : Regenerate Lotleth Troll.</t>
   </si>
   <si>
@@ -11926,6 +11914,18 @@
   </si>
   <si>
     <t>Target player sacrifices a creature.\nFlashback 5BB and drink 1</t>
+  </si>
+  <si>
+    <t>Flash\nFlying\nBuzztouch\nWhen Pestermite enters the battlefield, drink 1 and you may tap or untap target permanent.</t>
+  </si>
+  <si>
+    <t>Flash\nBuzztouch\nWhen Deceiver Exarch enters the battlefield, choose one: drink 1 and untap target permanent you control OR tap target permanent an opponent controls.</t>
+  </si>
+  <si>
+    <t>Flash\nFlying\nBuzztouch\nWhen Restoration Angel enters the battlefield, you may exile target non-Angel creature you control, then return that card to the battlefield under your control.  Drink 1 if you used the enter the battlefield effect.</t>
+  </si>
+  <si>
+    <t>T : Drink 1 and untap another target permanent.\nBuzztouch</t>
   </si>
 </sst>
 </file>
@@ -13316,8 +13316,8 @@
   <dimension ref="A1:S592"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S1" sqref="A1:S1048576"/>
+      <pane ySplit="1" topLeftCell="A401" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S436" sqref="S436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13361,7 +13361,7 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>3967</v>
+        <v>3963</v>
       </c>
       <c r="M1" t="s">
         <v>11</v>
@@ -13432,7 +13432,7 @@
         <v>29</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>3817</v>
+        <v>3815</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -13523,7 +13523,7 @@
         <v>46</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>3798</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -13570,7 +13570,7 @@
         <v>54</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>3820</v>
+        <v>3818</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -13662,7 +13662,7 @@
         <v>72</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>3804</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -13793,7 +13793,7 @@
         <v>97</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>3805</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -14194,7 +14194,7 @@
         <v>166</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>3803</v>
+        <v>3801</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -14285,7 +14285,7 @@
         <v>179</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>3821</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -14463,7 +14463,7 @@
         <v>210</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>3806</v>
+        <v>3804</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -14600,7 +14600,7 @@
         <v>232</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>3807</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -14694,7 +14694,7 @@
         <v>246</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>3822</v>
+        <v>3820</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -14839,7 +14839,7 @@
         <v>270</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>3964</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -14977,7 +14977,7 @@
         <v>291</v>
       </c>
       <c r="S36" t="s">
-        <v>3942</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -15069,7 +15069,7 @@
         <v>304</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>3808</v>
+        <v>3806</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -15113,7 +15113,7 @@
         <v>310</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>3818</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -15160,7 +15160,7 @@
         <v>317</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>3819</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -15291,7 +15291,7 @@
         <v>335</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>3809</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -15592,7 +15592,7 @@
         <v>388</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>3882</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="51" spans="1:19">
@@ -15717,7 +15717,7 @@
         <v>408</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>3810</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -15761,7 +15761,7 @@
         <v>415</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>3882</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -16084,7 +16084,7 @@
         <v>3673</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>3823</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -16164,7 +16164,7 @@
         <v>476</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>3811</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="65" spans="1:19">
@@ -16296,7 +16296,7 @@
         <v>496</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>3812</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="68" spans="1:19">
@@ -16340,7 +16340,7 @@
         <v>504</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>3824</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="69" spans="1:19">
@@ -17149,7 +17149,7 @@
         <v>625</v>
       </c>
       <c r="S87" s="2" t="s">
-        <v>3813</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="88" spans="1:19">
@@ -17241,7 +17241,7 @@
         <v>640</v>
       </c>
       <c r="S89" s="2" t="s">
-        <v>3775</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="90" spans="1:19">
@@ -17327,7 +17327,7 @@
         <v>651</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>3776</v>
+        <v>3775</v>
       </c>
     </row>
     <row r="92" spans="1:19">
@@ -17371,7 +17371,7 @@
         <v>657</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>3965</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="93" spans="1:19">
@@ -17415,7 +17415,7 @@
         <v>663</v>
       </c>
       <c r="S93" t="s">
-        <v>3777</v>
+        <v>3776</v>
       </c>
     </row>
     <row r="94" spans="1:19">
@@ -17549,7 +17549,7 @@
         <v>685</v>
       </c>
       <c r="S96" s="2" t="s">
-        <v>3801</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="97" spans="1:19">
@@ -17638,7 +17638,7 @@
         <v>699</v>
       </c>
       <c r="S98" s="2" t="s">
-        <v>3814</v>
+        <v>3812</v>
       </c>
     </row>
     <row r="99" spans="1:19">
@@ -17685,7 +17685,7 @@
         <v>707</v>
       </c>
       <c r="S99" s="2" t="s">
-        <v>3802</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="100" spans="1:19">
@@ -17732,7 +17732,7 @@
         <v>716</v>
       </c>
       <c r="S100" s="2" t="s">
-        <v>3778</v>
+        <v>3777</v>
       </c>
     </row>
     <row r="101" spans="1:19">
@@ -17863,7 +17863,7 @@
         <v>736</v>
       </c>
       <c r="S103" s="2" t="s">
-        <v>3779</v>
+        <v>3965</v>
       </c>
     </row>
     <row r="104" spans="1:19">
@@ -17952,7 +17952,7 @@
         <v>749</v>
       </c>
       <c r="S105" s="2" t="s">
-        <v>3780</v>
+        <v>3778</v>
       </c>
     </row>
     <row r="106" spans="1:19">
@@ -18086,7 +18086,7 @@
         <v>772</v>
       </c>
       <c r="S108" s="2" t="s">
-        <v>3781</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="109" spans="1:19">
@@ -18130,7 +18130,7 @@
         <v>777</v>
       </c>
       <c r="S109" s="2" t="s">
-        <v>3782</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="110" spans="1:19">
@@ -18219,7 +18219,7 @@
         <v>790</v>
       </c>
       <c r="S111" s="2" t="s">
-        <v>3799</v>
+        <v>3797</v>
       </c>
     </row>
     <row r="112" spans="1:19">
@@ -18311,7 +18311,7 @@
         <v>804</v>
       </c>
       <c r="S113" s="2" t="s">
-        <v>3815</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="114" spans="1:19">
@@ -18400,7 +18400,7 @@
         <v>818</v>
       </c>
       <c r="S115" s="2" t="s">
-        <v>3783</v>
+        <v>3781</v>
       </c>
     </row>
     <row r="116" spans="1:19">
@@ -18534,7 +18534,7 @@
         <v>839</v>
       </c>
       <c r="S118" s="2" t="s">
-        <v>3800</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="119" spans="1:19">
@@ -18662,7 +18662,7 @@
         <v>859</v>
       </c>
       <c r="S121" s="2" t="s">
-        <v>3784</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="122" spans="1:19">
@@ -18952,7 +18952,7 @@
         <v>906</v>
       </c>
       <c r="S128" s="2" t="s">
-        <v>3966</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="129" spans="1:19">
@@ -18999,7 +18999,7 @@
         <v>913</v>
       </c>
       <c r="S129" s="2" t="s">
-        <v>3785</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="130" spans="1:19">
@@ -19205,7 +19205,7 @@
         <v>946</v>
       </c>
       <c r="S134" s="2" t="s">
-        <v>3816</v>
+        <v>3814</v>
       </c>
     </row>
     <row r="135" spans="1:19">
@@ -19330,7 +19330,7 @@
         <v>964</v>
       </c>
       <c r="S137" s="2" t="s">
-        <v>3786</v>
+        <v>3784</v>
       </c>
     </row>
     <row r="138" spans="1:19">
@@ -19413,7 +19413,7 @@
         <v>977</v>
       </c>
       <c r="S139" t="s">
-        <v>3787</v>
+        <v>3785</v>
       </c>
     </row>
     <row r="140" spans="1:19">
@@ -19496,7 +19496,7 @@
         <v>989</v>
       </c>
       <c r="S141" s="2" t="s">
-        <v>3788</v>
+        <v>3786</v>
       </c>
     </row>
     <row r="142" spans="1:19">
@@ -19540,7 +19540,7 @@
         <v>996</v>
       </c>
       <c r="S142" s="2" t="s">
-        <v>3789</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="143" spans="1:19">
@@ -19791,7 +19791,7 @@
         <v>1036</v>
       </c>
       <c r="S148" s="2" t="s">
-        <v>3790</v>
+        <v>3788</v>
       </c>
     </row>
     <row r="149" spans="1:19">
@@ -19871,7 +19871,7 @@
         <v>1047</v>
       </c>
       <c r="S150" s="2" t="s">
-        <v>3791</v>
+        <v>3789</v>
       </c>
     </row>
     <row r="151" spans="1:19">
@@ -19915,7 +19915,7 @@
         <v>1054</v>
       </c>
       <c r="S151" s="2" t="s">
-        <v>3792</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="152" spans="1:19">
@@ -20040,7 +20040,7 @@
         <v>1073</v>
       </c>
       <c r="S154" s="2" t="s">
-        <v>3793</v>
+        <v>3791</v>
       </c>
     </row>
     <row r="155" spans="1:19">
@@ -20084,7 +20084,7 @@
         <v>1078</v>
       </c>
       <c r="S155" s="2" t="s">
-        <v>3794</v>
+        <v>3792</v>
       </c>
     </row>
     <row r="156" spans="1:19">
@@ -20125,7 +20125,7 @@
         <v>1084</v>
       </c>
       <c r="S156" s="2" t="s">
-        <v>3795</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="157" spans="1:19">
@@ -20214,7 +20214,7 @@
         <v>1097</v>
       </c>
       <c r="S158" s="2" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
     </row>
     <row r="159" spans="1:19">
@@ -20384,7 +20384,7 @@
         <v>1122</v>
       </c>
       <c r="S162" s="2" t="s">
-        <v>3797</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="163" spans="1:19">
@@ -20428,7 +20428,7 @@
         <v>1128</v>
       </c>
       <c r="S163" t="s">
-        <v>3825</v>
+        <v>3823</v>
       </c>
     </row>
     <row r="164" spans="1:19">
@@ -20640,7 +20640,7 @@
         <v>1157</v>
       </c>
       <c r="S168" s="2" t="s">
-        <v>3826</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="169" spans="1:19">
@@ -20687,7 +20687,7 @@
         <v>1163</v>
       </c>
       <c r="S169" s="2" t="s">
-        <v>3827</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="170" spans="1:19">
@@ -20731,7 +20731,7 @@
         <v>1170</v>
       </c>
       <c r="S170" s="2" t="s">
-        <v>3828</v>
+        <v>3826</v>
       </c>
     </row>
     <row r="171" spans="1:19">
@@ -20823,7 +20823,7 @@
         <v>1185</v>
       </c>
       <c r="S172" t="s">
-        <v>3829</v>
+        <v>3827</v>
       </c>
     </row>
     <row r="173" spans="1:19">
@@ -20870,7 +20870,7 @@
         <v>1192</v>
       </c>
       <c r="S173" s="2" t="s">
-        <v>3830</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="174" spans="1:19">
@@ -20917,7 +20917,7 @@
         <v>1198</v>
       </c>
       <c r="S174" s="2" t="s">
-        <v>3960</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="175" spans="1:19">
@@ -21000,7 +21000,7 @@
         <v>1209</v>
       </c>
       <c r="S176" s="2" t="s">
-        <v>3831</v>
+        <v>3829</v>
       </c>
     </row>
     <row r="177" spans="1:19">
@@ -21221,7 +21221,7 @@
         <v>1239</v>
       </c>
       <c r="S181" s="2" t="s">
-        <v>3832</v>
+        <v>3830</v>
       </c>
     </row>
     <row r="182" spans="1:19">
@@ -21265,7 +21265,7 @@
         <v>1244</v>
       </c>
       <c r="S182" s="2" t="s">
-        <v>3833</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="183" spans="1:19">
@@ -21354,7 +21354,7 @@
         <v>1257</v>
       </c>
       <c r="S184" s="2" t="s">
-        <v>3834</v>
+        <v>3832</v>
       </c>
     </row>
     <row r="185" spans="1:19">
@@ -21443,7 +21443,7 @@
         <v>1270</v>
       </c>
       <c r="S186" s="2" t="s">
-        <v>3835</v>
+        <v>3833</v>
       </c>
     </row>
     <row r="187" spans="1:19">
@@ -21490,7 +21490,7 @@
         <v>1277</v>
       </c>
       <c r="S187" s="2" t="s">
-        <v>3836</v>
+        <v>3834</v>
       </c>
     </row>
     <row r="188" spans="1:19">
@@ -21534,7 +21534,7 @@
         <v>1283</v>
       </c>
       <c r="S188" t="s">
-        <v>3837</v>
+        <v>3835</v>
       </c>
     </row>
     <row r="189" spans="1:19">
@@ -21581,7 +21581,7 @@
         <v>1291</v>
       </c>
       <c r="S189" t="s">
-        <v>3838</v>
+        <v>3836</v>
       </c>
     </row>
     <row r="190" spans="1:19">
@@ -21760,7 +21760,7 @@
         <v>1317</v>
       </c>
       <c r="S193" s="2" t="s">
-        <v>3839</v>
+        <v>3837</v>
       </c>
     </row>
     <row r="194" spans="1:19">
@@ -21852,7 +21852,7 @@
         <v>1330</v>
       </c>
       <c r="S195" s="2" t="s">
-        <v>3840</v>
+        <v>3838</v>
       </c>
     </row>
     <row r="196" spans="1:19">
@@ -21899,7 +21899,7 @@
         <v>1338</v>
       </c>
       <c r="S196" s="2" t="s">
-        <v>3841</v>
+        <v>3839</v>
       </c>
     </row>
     <row r="197" spans="1:19">
@@ -22513,7 +22513,7 @@
         <v>1428</v>
       </c>
       <c r="S210" s="2" t="s">
-        <v>3842</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="211" spans="1:19">
@@ -22593,7 +22593,7 @@
         <v>1439</v>
       </c>
       <c r="S212" s="2" t="s">
-        <v>3843</v>
+        <v>3841</v>
       </c>
     </row>
     <row r="213" spans="1:19">
@@ -22715,7 +22715,7 @@
         <v>1456</v>
       </c>
       <c r="S215" s="2" t="s">
-        <v>3844</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="216" spans="1:19">
@@ -22759,7 +22759,7 @@
         <v>1462</v>
       </c>
       <c r="S216" s="2" t="s">
-        <v>3845</v>
+        <v>3843</v>
       </c>
     </row>
     <row r="217" spans="1:19">
@@ -22803,7 +22803,7 @@
         <v>1468</v>
       </c>
       <c r="S217" s="2" t="s">
-        <v>3846</v>
+        <v>3844</v>
       </c>
     </row>
     <row r="218" spans="1:19">
@@ -22925,7 +22925,7 @@
         <v>1485</v>
       </c>
       <c r="S220" s="2" t="s">
-        <v>3968</v>
+        <v>3964</v>
       </c>
     </row>
     <row r="221" spans="1:19">
@@ -23092,7 +23092,7 @@
         <v>1508</v>
       </c>
       <c r="S224" s="2" t="s">
-        <v>3850</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="225" spans="1:19">
@@ -23220,7 +23220,7 @@
         <v>1526</v>
       </c>
       <c r="S227" s="2" t="s">
-        <v>3849</v>
+        <v>3847</v>
       </c>
     </row>
     <row r="228" spans="1:19">
@@ -23342,7 +23342,7 @@
         <v>1544</v>
       </c>
       <c r="S230" s="2" t="s">
-        <v>3847</v>
+        <v>3845</v>
       </c>
     </row>
     <row r="231" spans="1:19">
@@ -23386,7 +23386,7 @@
         <v>1551</v>
       </c>
       <c r="S231" s="2" t="s">
-        <v>3848</v>
+        <v>3846</v>
       </c>
     </row>
     <row r="232" spans="1:19">
@@ -23430,7 +23430,7 @@
         <v>1558</v>
       </c>
       <c r="S232" s="2" t="s">
-        <v>3961</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="233" spans="1:19">
@@ -23474,7 +23474,7 @@
         <v>1565</v>
       </c>
       <c r="S233" s="2" t="s">
-        <v>3851</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="234" spans="1:19">
@@ -23518,7 +23518,7 @@
         <v>1571</v>
       </c>
       <c r="S234" s="2" t="s">
-        <v>3852</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="235" spans="1:19">
@@ -23727,7 +23727,7 @@
         <v>1603</v>
       </c>
       <c r="S239" s="2" t="s">
-        <v>3853</v>
+        <v>3851</v>
       </c>
     </row>
     <row r="240" spans="1:19">
@@ -24113,7 +24113,7 @@
         <v>1662</v>
       </c>
       <c r="S248" s="2" t="s">
-        <v>3854</v>
+        <v>3852</v>
       </c>
     </row>
     <row r="249" spans="1:19">
@@ -24367,7 +24367,7 @@
         <v>1699</v>
       </c>
       <c r="S254" s="2" t="s">
-        <v>3855</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="255" spans="1:19">
@@ -24411,7 +24411,7 @@
         <v>1708</v>
       </c>
       <c r="S255" s="2" t="s">
-        <v>3856</v>
+        <v>3854</v>
       </c>
     </row>
     <row r="256" spans="1:19">
@@ -24458,7 +24458,7 @@
         <v>1715</v>
       </c>
       <c r="S256" s="2" t="s">
-        <v>3857</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="257" spans="1:19">
@@ -24502,7 +24502,7 @@
         <v>1721</v>
       </c>
       <c r="S257" s="2" t="s">
-        <v>3858</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="258" spans="1:19">
@@ -24546,7 +24546,7 @@
         <v>1726</v>
       </c>
       <c r="S258" s="2" t="s">
-        <v>3859</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="259" spans="1:19">
@@ -24593,7 +24593,7 @@
         <v>1734</v>
       </c>
       <c r="S259" s="2" t="s">
-        <v>3879</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="260" spans="1:19">
@@ -24733,7 +24733,7 @@
         <v>1753</v>
       </c>
       <c r="S262" s="2" t="s">
-        <v>3860</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="263" spans="1:19">
@@ -24825,7 +24825,7 @@
         <v>1766</v>
       </c>
       <c r="S264" s="2" t="s">
-        <v>3861</v>
+        <v>3859</v>
       </c>
     </row>
     <row r="265" spans="1:19">
@@ -24869,7 +24869,7 @@
         <v>1771</v>
       </c>
       <c r="S265" t="s">
-        <v>3862</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="266" spans="1:19">
@@ -24913,7 +24913,7 @@
         <v>1776</v>
       </c>
       <c r="S266" t="s">
-        <v>3863</v>
+        <v>3861</v>
       </c>
     </row>
     <row r="267" spans="1:19">
@@ -24960,7 +24960,7 @@
         <v>1783</v>
       </c>
       <c r="S267" s="2" t="s">
-        <v>3864</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="268" spans="1:19">
@@ -25004,7 +25004,7 @@
         <v>1788</v>
       </c>
       <c r="S268" s="2" t="s">
-        <v>3865</v>
+        <v>3863</v>
       </c>
     </row>
     <row r="269" spans="1:19">
@@ -25096,7 +25096,7 @@
         <v>1802</v>
       </c>
       <c r="S270" s="2" t="s">
-        <v>3866</v>
+        <v>3864</v>
       </c>
     </row>
     <row r="271" spans="1:19">
@@ -25143,7 +25143,7 @@
         <v>1808</v>
       </c>
       <c r="S271" s="2" t="s">
-        <v>3867</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="272" spans="1:19">
@@ -25190,7 +25190,7 @@
         <v>1815</v>
       </c>
       <c r="S272" s="2" t="s">
-        <v>3868</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="273" spans="1:19">
@@ -25276,7 +25276,7 @@
         <v>1827</v>
       </c>
       <c r="S274" t="s">
-        <v>3869</v>
+        <v>3867</v>
       </c>
     </row>
     <row r="275" spans="1:19">
@@ -25368,7 +25368,7 @@
         <v>1842</v>
       </c>
       <c r="S276" s="2" t="s">
-        <v>3870</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="277" spans="1:19">
@@ -25457,7 +25457,7 @@
         <v>1856</v>
       </c>
       <c r="S278" s="2" t="s">
-        <v>3871</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="279" spans="1:19">
@@ -25501,7 +25501,7 @@
         <v>1862</v>
       </c>
       <c r="S279" s="2" t="s">
-        <v>3872</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="280" spans="1:19">
@@ -25593,7 +25593,7 @@
         <v>1876</v>
       </c>
       <c r="S281" s="2" t="s">
-        <v>3878</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="282" spans="1:19">
@@ -25637,7 +25637,7 @@
         <v>1882</v>
       </c>
       <c r="S282" s="2" t="s">
-        <v>3873</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="283" spans="1:19">
@@ -25687,7 +25687,7 @@
         <v>1888</v>
       </c>
       <c r="S283" s="2" t="s">
-        <v>3874</v>
+        <v>3872</v>
       </c>
     </row>
     <row r="284" spans="1:19">
@@ -25734,7 +25734,7 @@
         <v>1895</v>
       </c>
       <c r="S284" s="2" t="s">
-        <v>3875</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="285" spans="1:19">
@@ -25778,7 +25778,7 @@
         <v>1900</v>
       </c>
       <c r="S285" s="2" t="s">
-        <v>3876</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="286" spans="1:19">
@@ -25822,7 +25822,7 @@
         <v>1906</v>
       </c>
       <c r="S286" s="2" t="s">
-        <v>3877</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="287" spans="1:19">
@@ -25869,7 +25869,7 @@
         <v>1913</v>
       </c>
       <c r="S287" s="2" t="s">
-        <v>3962</v>
+        <v>3958</v>
       </c>
     </row>
     <row r="288" spans="1:19">
@@ -25913,7 +25913,7 @@
         <v>1918</v>
       </c>
       <c r="S288" s="2" t="s">
-        <v>3963</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="289" spans="1:19">
@@ -25963,7 +25963,7 @@
         <v>1924</v>
       </c>
       <c r="S289" s="2" t="s">
-        <v>3880</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="290" spans="1:19">
@@ -26052,7 +26052,7 @@
         <v>1935</v>
       </c>
       <c r="S291" s="2" t="s">
-        <v>3881</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="292" spans="1:19">
@@ -26177,7 +26177,7 @@
         <v>1951</v>
       </c>
       <c r="S294" s="2" t="s">
-        <v>3883</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="295" spans="1:19">
@@ -26305,7 +26305,7 @@
         <v>1971</v>
       </c>
       <c r="S297" s="2" t="s">
-        <v>3884</v>
+        <v>3882</v>
       </c>
     </row>
     <row r="298" spans="1:19">
@@ -26391,7 +26391,7 @@
         <v>1985</v>
       </c>
       <c r="S299" s="2" t="s">
-        <v>3885</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="300" spans="1:19">
@@ -26513,7 +26513,7 @@
         <v>2002</v>
       </c>
       <c r="S302" s="2" t="s">
-        <v>3886</v>
+        <v>3884</v>
       </c>
     </row>
     <row r="303" spans="1:19">
@@ -26599,7 +26599,7 @@
         <v>2013</v>
       </c>
       <c r="S304" s="2" t="s">
-        <v>3887</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="305" spans="1:19">
@@ -26643,7 +26643,7 @@
         <v>2020</v>
       </c>
       <c r="S305" s="2" t="s">
-        <v>3888</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="306" spans="1:19">
@@ -26687,7 +26687,7 @@
         <v>2026</v>
       </c>
       <c r="S306" s="2" t="s">
-        <v>3889</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="307" spans="1:19">
@@ -26731,7 +26731,7 @@
         <v>2032</v>
       </c>
       <c r="S307" s="2" t="s">
-        <v>3890</v>
+        <v>3888</v>
       </c>
     </row>
     <row r="308" spans="1:19">
@@ -26775,7 +26775,7 @@
         <v>2038</v>
       </c>
       <c r="S308" s="2" t="s">
-        <v>3891</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="309" spans="1:19">
@@ -26819,7 +26819,7 @@
         <v>2044</v>
       </c>
       <c r="S309" s="2" t="s">
-        <v>3892</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="310" spans="1:19">
@@ -26863,7 +26863,7 @@
         <v>2050</v>
       </c>
       <c r="S310" s="2" t="s">
-        <v>3893</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="311" spans="1:19">
@@ -26907,7 +26907,7 @@
         <v>2055</v>
       </c>
       <c r="S311" s="2" t="s">
-        <v>3888</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="312" spans="1:19">
@@ -26990,7 +26990,7 @@
         <v>2066</v>
       </c>
       <c r="S313" s="2" t="s">
-        <v>3894</v>
+        <v>3892</v>
       </c>
     </row>
     <row r="314" spans="1:19">
@@ -27031,7 +27031,7 @@
         <v>2071</v>
       </c>
       <c r="S314" s="2" t="s">
-        <v>3895</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="315" spans="1:19">
@@ -27122,7 +27122,7 @@
         <v>2083</v>
       </c>
       <c r="S316" s="2" t="s">
-        <v>3896</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="317" spans="1:19">
@@ -27163,7 +27163,7 @@
         <v>2089</v>
       </c>
       <c r="S317" s="2" t="s">
-        <v>3897</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="318" spans="1:19">
@@ -27204,7 +27204,7 @@
         <v>2094</v>
       </c>
       <c r="S318" s="2" t="s">
-        <v>3898</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="319" spans="1:19">
@@ -27248,7 +27248,7 @@
         <v>2100</v>
       </c>
       <c r="S319" s="2" t="s">
-        <v>3899</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="320" spans="1:19">
@@ -27292,7 +27292,7 @@
         <v>2106</v>
       </c>
       <c r="S320" s="2" t="s">
-        <v>3900</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="321" spans="1:19">
@@ -27336,7 +27336,7 @@
         <v>2113</v>
       </c>
       <c r="S321" s="2" t="s">
-        <v>3901</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="322" spans="1:19">
@@ -27377,7 +27377,7 @@
         <v>2118</v>
       </c>
       <c r="S322" s="2" t="s">
-        <v>3902</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="323" spans="1:19">
@@ -27421,7 +27421,7 @@
         <v>2124</v>
       </c>
       <c r="S323" s="2" t="s">
-        <v>3903</v>
+        <v>3901</v>
       </c>
     </row>
     <row r="324" spans="1:19">
@@ -27465,7 +27465,7 @@
         <v>2130</v>
       </c>
       <c r="S324" s="2" t="s">
-        <v>3904</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="325" spans="1:19">
@@ -27506,7 +27506,7 @@
         <v>3681</v>
       </c>
       <c r="S325" s="2" t="s">
-        <v>3905</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="326" spans="1:19">
@@ -27550,7 +27550,7 @@
         <v>2137</v>
       </c>
       <c r="S326" s="2" t="s">
-        <v>3906</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="327" spans="1:19">
@@ -27630,7 +27630,7 @@
         <v>2147</v>
       </c>
       <c r="S328" s="2" t="s">
-        <v>3907</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="329" spans="1:19">
@@ -27671,7 +27671,7 @@
         <v>2153</v>
       </c>
       <c r="S329" s="2" t="s">
-        <v>3908</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="330" spans="1:19">
@@ -28099,7 +28099,7 @@
         <v>2217</v>
       </c>
       <c r="S339" s="2" t="s">
-        <v>3909</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="340" spans="1:19">
@@ -28188,7 +28188,7 @@
         <v>2231</v>
       </c>
       <c r="S341" s="2" t="s">
-        <v>3910</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="342" spans="1:19">
@@ -28277,7 +28277,7 @@
         <v>2243</v>
       </c>
       <c r="S343" s="2" t="s">
-        <v>3911</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="344" spans="1:19">
@@ -28366,7 +28366,7 @@
         <v>2254</v>
       </c>
       <c r="S345" s="2" t="s">
-        <v>3912</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="346" spans="1:19">
@@ -28413,7 +28413,7 @@
         <v>2260</v>
       </c>
       <c r="S346" s="2" t="s">
-        <v>3913</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="347" spans="1:19">
@@ -28637,7 +28637,7 @@
         <v>2289</v>
       </c>
       <c r="S351" s="2" t="s">
-        <v>3914</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="352" spans="1:19">
@@ -28813,7 +28813,7 @@
         <v>2313</v>
       </c>
       <c r="S355" s="2" t="s">
-        <v>3915</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="356" spans="1:19">
@@ -28902,7 +28902,7 @@
         <v>2326</v>
       </c>
       <c r="S357" s="2" t="s">
-        <v>3916</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="358" spans="1:19">
@@ -28946,7 +28946,7 @@
         <v>2331</v>
       </c>
       <c r="S358" s="2" t="s">
-        <v>3917</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="359" spans="1:19">
@@ -29209,7 +29209,7 @@
         <v>2368</v>
       </c>
       <c r="S364" s="2" t="s">
-        <v>3918</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="365" spans="1:19">
@@ -29256,7 +29256,7 @@
         <v>2374</v>
       </c>
       <c r="S365" s="2" t="s">
-        <v>3919</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="366" spans="1:19">
@@ -29303,7 +29303,7 @@
         <v>2380</v>
       </c>
       <c r="S366" s="2" t="s">
-        <v>3920</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="367" spans="1:19">
@@ -29530,7 +29530,7 @@
         <v>2412</v>
       </c>
       <c r="S371" s="2" t="s">
-        <v>3921</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="372" spans="1:19">
@@ -29664,7 +29664,7 @@
         <v>2434</v>
       </c>
       <c r="S374" s="2" t="s">
-        <v>3922</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="375" spans="1:19">
@@ -29711,7 +29711,7 @@
         <v>2440</v>
       </c>
       <c r="S375" s="2" t="s">
-        <v>3923</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="376" spans="1:19">
@@ -30031,7 +30031,7 @@
         <v>2488</v>
       </c>
       <c r="S382" s="2" t="s">
-        <v>3924</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="383" spans="1:19">
@@ -30075,7 +30075,7 @@
         <v>2494</v>
       </c>
       <c r="S383" s="2" t="s">
-        <v>3925</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="384" spans="1:19">
@@ -30164,7 +30164,7 @@
         <v>2507</v>
       </c>
       <c r="S385" s="2" t="s">
-        <v>3926</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="386" spans="1:19">
@@ -30373,7 +30373,7 @@
         <v>2535</v>
       </c>
       <c r="S390" s="2" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="391" spans="1:19">
@@ -30456,7 +30456,7 @@
         <v>2547</v>
       </c>
       <c r="S392" s="2" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="393" spans="1:19">
@@ -30665,7 +30665,7 @@
         <v>2576</v>
       </c>
       <c r="S397" s="2" t="s">
-        <v>3929</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="398" spans="1:19">
@@ -30874,7 +30874,7 @@
         <v>2608</v>
       </c>
       <c r="S402" s="2" t="s">
-        <v>3930</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="403" spans="1:19">
@@ -31116,7 +31116,7 @@
         <v>2640</v>
       </c>
       <c r="S408" s="2" t="s">
-        <v>3931</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="409" spans="1:19">
@@ -31583,7 +31583,7 @@
         <v>2706</v>
       </c>
       <c r="S419" s="2" t="s">
-        <v>3932</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="420" spans="1:19">
@@ -31675,7 +31675,7 @@
         <v>2720</v>
       </c>
       <c r="S421" t="s">
-        <v>3933</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="422" spans="1:19">
@@ -31805,7 +31805,7 @@
         <v>2734</v>
       </c>
       <c r="S424" s="2" t="s">
-        <v>3934</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="425" spans="1:19">
@@ -31852,7 +31852,7 @@
         <v>2740</v>
       </c>
       <c r="S425" s="2" t="s">
-        <v>3935</v>
+        <v>3933</v>
       </c>
     </row>
     <row r="426" spans="1:19">
@@ -32075,7 +32075,7 @@
         <v>2765</v>
       </c>
       <c r="S430" s="2" t="s">
-        <v>3936</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="431" spans="1:19">
@@ -32119,7 +32119,7 @@
         <v>2771</v>
       </c>
       <c r="S431" s="2" t="s">
-        <v>3937</v>
+        <v>3935</v>
       </c>
     </row>
     <row r="432" spans="1:19">
@@ -32163,7 +32163,7 @@
         <v>2777</v>
       </c>
       <c r="S432" s="2" t="s">
-        <v>3938</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="433" spans="1:19">
@@ -32213,7 +32213,7 @@
         <v>2785</v>
       </c>
       <c r="S433" t="s">
-        <v>3939</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="434" spans="1:19">
@@ -32257,7 +32257,7 @@
         <v>2790</v>
       </c>
       <c r="S434" s="2" t="s">
-        <v>3940</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="435" spans="1:19">
@@ -32304,7 +32304,7 @@
         <v>2797</v>
       </c>
       <c r="S435" s="2" t="s">
-        <v>3941</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="436" spans="1:19">
@@ -32396,7 +32396,7 @@
         <v>2811</v>
       </c>
       <c r="S437" s="2" t="s">
-        <v>3943</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="438" spans="1:19">
@@ -32617,7 +32617,7 @@
         <v>2842</v>
       </c>
       <c r="S442" s="2" t="s">
-        <v>3944</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="443" spans="1:19">
@@ -32970,7 +32970,7 @@
         <v>2892</v>
       </c>
       <c r="S450" s="2" t="s">
-        <v>3945</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="451" spans="1:19">
@@ -33139,7 +33139,7 @@
         <v>2911</v>
       </c>
       <c r="S454" s="2" t="s">
-        <v>3946</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="455" spans="1:19">
@@ -33315,7 +33315,7 @@
         <v>2938</v>
       </c>
       <c r="S458" s="2" t="s">
-        <v>3947</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="459" spans="1:19">
@@ -33401,7 +33401,7 @@
         <v>2950</v>
       </c>
       <c r="S460" s="2" t="s">
-        <v>3948</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="461" spans="1:19">
@@ -33445,7 +33445,7 @@
         <v>2957</v>
       </c>
       <c r="S461" s="2" t="s">
-        <v>3949</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="462" spans="1:19">
@@ -33489,7 +33489,7 @@
         <v>2963</v>
       </c>
       <c r="S462" s="2" t="s">
-        <v>3950</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="463" spans="1:19">
@@ -33575,7 +33575,7 @@
         <v>2974</v>
       </c>
       <c r="S464" s="2" t="s">
-        <v>3951</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="465" spans="1:19">
@@ -33664,7 +33664,7 @@
         <v>2986</v>
       </c>
       <c r="S466" s="2" t="s">
-        <v>3952</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="467" spans="1:19">
@@ -34254,7 +34254,7 @@
         <v>3070</v>
       </c>
       <c r="S480" s="2" t="s">
-        <v>3953</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="481" spans="1:19">
@@ -34340,7 +34340,7 @@
         <v>3081</v>
       </c>
       <c r="S482" s="2" t="s">
-        <v>3954</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="483" spans="1:19">
@@ -34429,7 +34429,7 @@
         <v>3094</v>
       </c>
       <c r="S484" s="2" t="s">
-        <v>3955</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="485" spans="1:19">
@@ -34766,7 +34766,7 @@
         <v>3138</v>
       </c>
       <c r="S492" s="2" t="s">
-        <v>3956</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="493" spans="1:19">
@@ -35215,7 +35215,7 @@
         <v>3202</v>
       </c>
       <c r="S503" s="2" t="s">
-        <v>3957</v>
+        <v>3953</v>
       </c>
     </row>
     <row r="504" spans="1:19">
@@ -35298,7 +35298,7 @@
         <v>3214</v>
       </c>
       <c r="S505" s="2" t="s">
-        <v>3958</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="506" spans="1:19">
@@ -35342,7 +35342,7 @@
         <v>3220</v>
       </c>
       <c r="S506" s="2" t="s">
-        <v>3959</v>
+        <v>3955</v>
       </c>
     </row>
     <row r="507" spans="1:19">
